--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Comp-Itgb3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Comp-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.270931634961322</v>
+        <v>0.3846876666666667</v>
       </c>
       <c r="H2">
-        <v>0.270931634961322</v>
+        <v>1.154063</v>
       </c>
       <c r="I2">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="J2">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N2">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q2">
-        <v>0.1142768704639944</v>
+        <v>0.8048790556945556</v>
       </c>
       <c r="R2">
-        <v>0.1142768704639944</v>
+        <v>7.243911501251001</v>
       </c>
       <c r="S2">
-        <v>0.0004931872673858095</v>
+        <v>0.002946785303574867</v>
       </c>
       <c r="T2">
-        <v>0.0004931872673858095</v>
+        <v>0.002946785303574868</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.270931634961322</v>
+        <v>0.3846876666666667</v>
       </c>
       <c r="H3">
-        <v>0.270931634961322</v>
+        <v>1.154063</v>
       </c>
       <c r="I3">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="J3">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N3">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q3">
-        <v>0.6684825439622281</v>
+        <v>0.9495497005608889</v>
       </c>
       <c r="R3">
-        <v>0.6684825439622281</v>
+        <v>8.545947305048001</v>
       </c>
       <c r="S3">
-        <v>0.002884985192657346</v>
+        <v>0.003476446657208838</v>
       </c>
       <c r="T3">
-        <v>0.002884985192657346</v>
+        <v>0.003476446657208838</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.270931634961322</v>
+        <v>0.3846876666666667</v>
       </c>
       <c r="H4">
-        <v>0.270931634961322</v>
+        <v>1.154063</v>
       </c>
       <c r="I4">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="J4">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N4">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q4">
-        <v>0.05548932839178625</v>
+        <v>0.1215362979683333</v>
       </c>
       <c r="R4">
-        <v>0.05548932839178625</v>
+        <v>1.093826681715</v>
       </c>
       <c r="S4">
-        <v>0.0002394765461068639</v>
+        <v>0.0004449629719771117</v>
       </c>
       <c r="T4">
-        <v>0.0002394765461068639</v>
+        <v>0.0004449629719771117</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.270931634961322</v>
+        <v>0.3846876666666667</v>
       </c>
       <c r="H5">
-        <v>0.270931634961322</v>
+        <v>1.154063</v>
       </c>
       <c r="I5">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="J5">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N5">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q5">
-        <v>0.1096499390399837</v>
+        <v>0.1810210647818889</v>
       </c>
       <c r="R5">
-        <v>0.1096499390399837</v>
+        <v>1.629189583037</v>
       </c>
       <c r="S5">
-        <v>0.000473218715078382</v>
+        <v>0.0006627457995865359</v>
       </c>
       <c r="T5">
-        <v>0.000473218715078382</v>
+        <v>0.000662745799586536</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.270931634961322</v>
+        <v>0.3846876666666667</v>
       </c>
       <c r="H6">
-        <v>0.270931634961322</v>
+        <v>1.154063</v>
       </c>
       <c r="I6">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="J6">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N6">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q6">
-        <v>2.983986900614819</v>
+        <v>4.343810808839334</v>
       </c>
       <c r="R6">
-        <v>2.983986900614819</v>
+        <v>39.094297279554</v>
       </c>
       <c r="S6">
-        <v>0.01287805957105691</v>
+        <v>0.01590335561900246</v>
       </c>
       <c r="T6">
-        <v>0.01287805957105691</v>
+        <v>0.01590335561900246</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.270931634961322</v>
+        <v>0.3846876666666667</v>
       </c>
       <c r="H7">
-        <v>0.270931634961322</v>
+        <v>1.154063</v>
       </c>
       <c r="I7">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="J7">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N7">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q7">
-        <v>0.05878897897126163</v>
+        <v>0.1008199695137778</v>
       </c>
       <c r="R7">
-        <v>0.05878897897126163</v>
+        <v>0.9073797256240002</v>
       </c>
       <c r="S7">
-        <v>0.0002537169225366</v>
+        <v>0.0003691173256007936</v>
       </c>
       <c r="T7">
-        <v>0.0002537169225366</v>
+        <v>0.0003691173256007936</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.3020543727055</v>
+        <v>14.31253666666667</v>
       </c>
       <c r="H8">
-        <v>14.3020543727055</v>
+        <v>42.93761</v>
       </c>
       <c r="I8">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253849</v>
       </c>
       <c r="J8">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253851</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N8">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q8">
-        <v>6.032496039644821</v>
+        <v>29.94601073821889</v>
       </c>
       <c r="R8">
-        <v>6.032496039644821</v>
+        <v>269.51409664397</v>
       </c>
       <c r="S8">
-        <v>0.02603457922174669</v>
+        <v>0.1096369246034482</v>
       </c>
       <c r="T8">
-        <v>0.02603457922174669</v>
+        <v>0.1096369246034482</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.3020543727055</v>
+        <v>14.31253666666667</v>
       </c>
       <c r="H9">
-        <v>14.3020543727055</v>
+        <v>42.93761</v>
       </c>
       <c r="I9">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253849</v>
       </c>
       <c r="J9">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253851</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N9">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q9">
-        <v>35.28814083418924</v>
+        <v>35.32856934006222</v>
       </c>
       <c r="R9">
-        <v>35.28814083418924</v>
+        <v>317.95712406056</v>
       </c>
       <c r="S9">
-        <v>0.1522938253250715</v>
+        <v>0.1293432947361078</v>
       </c>
       <c r="T9">
-        <v>0.1522938253250715</v>
+        <v>0.1293432947361078</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.3020543727055</v>
+        <v>14.31253666666667</v>
       </c>
       <c r="H10">
-        <v>14.3020543727055</v>
+        <v>42.93761</v>
       </c>
       <c r="I10">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253849</v>
       </c>
       <c r="J10">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253851</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N10">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q10">
-        <v>2.929194266581432</v>
+        <v>4.521831271783332</v>
       </c>
       <c r="R10">
-        <v>2.929194266581432</v>
+        <v>40.69648144604999</v>
       </c>
       <c r="S10">
-        <v>0.01264158976450659</v>
+        <v>0.01655511575641377</v>
       </c>
       <c r="T10">
-        <v>0.01264158976450659</v>
+        <v>0.01655511575641377</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.3020543727055</v>
+        <v>14.31253666666667</v>
       </c>
       <c r="H11">
-        <v>14.3020543727055</v>
+        <v>42.93761</v>
       </c>
       <c r="I11">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253849</v>
       </c>
       <c r="J11">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253851</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N11">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q11">
-        <v>5.788247615814845</v>
+        <v>6.734997899932223</v>
       </c>
       <c r="R11">
-        <v>5.788247615814845</v>
+        <v>60.61498109939</v>
       </c>
       <c r="S11">
-        <v>0.02498047078998008</v>
+        <v>0.02465785721558081</v>
       </c>
       <c r="T11">
-        <v>0.02498047078998008</v>
+        <v>0.02465785721558082</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.3020543727055</v>
+        <v>14.31253666666667</v>
       </c>
       <c r="H12">
-        <v>14.3020543727055</v>
+        <v>42.93761</v>
       </c>
       <c r="I12">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253849</v>
       </c>
       <c r="J12">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253851</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N12">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q12">
-        <v>157.5199695898438</v>
+        <v>161.6141011571533</v>
       </c>
       <c r="R12">
-        <v>157.5199695898438</v>
+        <v>1454.52691041438</v>
       </c>
       <c r="S12">
-        <v>0.679812485634947</v>
+        <v>0.5916939380779352</v>
       </c>
       <c r="T12">
-        <v>0.679812485634947</v>
+        <v>0.5916939380779354</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.3020543727055</v>
+        <v>14.31253666666667</v>
       </c>
       <c r="H13">
-        <v>14.3020543727055</v>
+        <v>42.93761</v>
       </c>
       <c r="I13">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253849</v>
       </c>
       <c r="J13">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253851</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N13">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q13">
-        <v>3.103377624701732</v>
+        <v>3.751067776364445</v>
       </c>
       <c r="R13">
-        <v>3.103377624701732</v>
+        <v>33.75960998728</v>
       </c>
       <c r="S13">
-        <v>0.01339331681186654</v>
+        <v>0.01373323273589907</v>
       </c>
       <c r="T13">
-        <v>0.01339331681186654</v>
+        <v>0.01373323273589907</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.245068412871115</v>
+        <v>0.2670986666666667</v>
       </c>
       <c r="H14">
-        <v>0.245068412871115</v>
+        <v>0.801296</v>
       </c>
       <c r="I14">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="J14">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N14">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q14">
-        <v>0.1033679632003371</v>
+        <v>0.5588484925102222</v>
       </c>
       <c r="R14">
-        <v>0.1033679632003371</v>
+        <v>5.029636432592</v>
       </c>
       <c r="S14">
-        <v>0.0004461074502567302</v>
+        <v>0.002046029789199833</v>
       </c>
       <c r="T14">
-        <v>0.0004461074502567302</v>
+        <v>0.002046029789199833</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.245068412871115</v>
+        <v>0.2670986666666667</v>
       </c>
       <c r="H15">
-        <v>0.245068412871115</v>
+        <v>0.801296</v>
       </c>
       <c r="I15">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="J15">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N15">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q15">
-        <v>0.6046689826540779</v>
+        <v>0.6592970893795556</v>
       </c>
       <c r="R15">
-        <v>0.6046689826540779</v>
+        <v>5.933673804416</v>
       </c>
       <c r="S15">
-        <v>0.002609583566799563</v>
+        <v>0.00241378746275967</v>
       </c>
       <c r="T15">
-        <v>0.002609583566799563</v>
+        <v>0.00241378746275967</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.245068412871115</v>
+        <v>0.2670986666666667</v>
       </c>
       <c r="H16">
-        <v>0.245068412871115</v>
+        <v>0.801296</v>
       </c>
       <c r="I16">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="J16">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N16">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q16">
-        <v>0.05019229903588222</v>
+        <v>0.08438581725333331</v>
       </c>
       <c r="R16">
-        <v>0.05019229903588222</v>
+        <v>0.7594723552799999</v>
       </c>
       <c r="S16">
-        <v>0.0002166160370406498</v>
+        <v>0.0003089493810939019</v>
       </c>
       <c r="T16">
-        <v>0.0002166160370406498</v>
+        <v>0.0003089493810939019</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.245068412871115</v>
+        <v>0.2670986666666667</v>
       </c>
       <c r="H17">
-        <v>0.245068412871115</v>
+        <v>0.801296</v>
       </c>
       <c r="I17">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="J17">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N17">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q17">
-        <v>0.09918272015661625</v>
+        <v>0.1256876402115556</v>
       </c>
       <c r="R17">
-        <v>0.09918272015661625</v>
+        <v>1.131188761904</v>
       </c>
       <c r="S17">
-        <v>0.0004280451024544379</v>
+        <v>0.0004601616707454384</v>
       </c>
       <c r="T17">
-        <v>0.0004280451024544379</v>
+        <v>0.0004601616707454385</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.245068412871115</v>
+        <v>0.2670986666666667</v>
       </c>
       <c r="H18">
-        <v>0.245068412871115</v>
+        <v>0.801296</v>
       </c>
       <c r="I18">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="J18">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N18">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q18">
-        <v>2.699134539479926</v>
+        <v>3.016020984885333</v>
       </c>
       <c r="R18">
-        <v>2.699134539479926</v>
+        <v>27.144188863968</v>
       </c>
       <c r="S18">
-        <v>0.01164871581123828</v>
+        <v>0.01104211403024289</v>
       </c>
       <c r="T18">
-        <v>0.01164871581123828</v>
+        <v>0.01104211403024289</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.245068412871115</v>
+        <v>0.2670986666666667</v>
       </c>
       <c r="H19">
-        <v>0.245068412871115</v>
+        <v>0.801296</v>
       </c>
       <c r="I19">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="J19">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N19">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q19">
-        <v>0.05317696389665689</v>
+        <v>0.07000193082311111</v>
       </c>
       <c r="R19">
-        <v>0.05317696389665689</v>
+        <v>0.630017377408</v>
       </c>
       <c r="S19">
-        <v>0.00022949702249966</v>
+        <v>0.0002562877733144668</v>
       </c>
       <c r="T19">
-        <v>0.00022949702249966</v>
+        <v>0.0002562877733144668</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.913074410896471</v>
+        <v>0.1626096666666667</v>
       </c>
       <c r="H20">
-        <v>0.913074410896471</v>
+        <v>0.487829</v>
       </c>
       <c r="I20">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="J20">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N20">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q20">
-        <v>0.385127732288996</v>
+        <v>0.3402269588925556</v>
       </c>
       <c r="R20">
-        <v>0.385127732288996</v>
+        <v>3.062042630033</v>
       </c>
       <c r="S20">
-        <v>0.001662104440827758</v>
+        <v>0.001245622923408535</v>
       </c>
       <c r="T20">
-        <v>0.001662104440827758</v>
+        <v>0.001245622923408535</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.913074410896471</v>
+        <v>0.1626096666666667</v>
       </c>
       <c r="H21">
-        <v>0.913074410896471</v>
+        <v>0.487829</v>
       </c>
       <c r="I21">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="J21">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N21">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q21">
-        <v>2.252872039509237</v>
+        <v>0.4013800640648889</v>
       </c>
       <c r="R21">
-        <v>2.252872039509237</v>
+        <v>3.612420576584</v>
       </c>
       <c r="S21">
-        <v>0.009722770674626851</v>
+        <v>0.001469513792868786</v>
       </c>
       <c r="T21">
-        <v>0.009722770674626851</v>
+        <v>0.001469513792868786</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.913074410896471</v>
+        <v>0.1626096666666667</v>
       </c>
       <c r="H22">
-        <v>0.913074410896471</v>
+        <v>0.487829</v>
       </c>
       <c r="I22">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="J22">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N22">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q22">
-        <v>0.1870061642657716</v>
+        <v>0.05137408503833332</v>
       </c>
       <c r="R22">
-        <v>0.1870061642657716</v>
+        <v>0.4623667653449999</v>
       </c>
       <c r="S22">
-        <v>0.0008070667210614298</v>
+        <v>0.0001880883813592693</v>
       </c>
       <c r="T22">
-        <v>0.0008070667210614298</v>
+        <v>0.0001880883813592693</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.913074410896471</v>
+        <v>0.1626096666666667</v>
       </c>
       <c r="H23">
-        <v>0.913074410896471</v>
+        <v>0.487829</v>
       </c>
       <c r="I23">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="J23">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N23">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q23">
-        <v>0.3695343790623044</v>
+        <v>0.07651863460788889</v>
       </c>
       <c r="R23">
-        <v>0.3695343790623044</v>
+        <v>0.6886677114709999</v>
       </c>
       <c r="S23">
-        <v>0.001594807854597942</v>
+        <v>0.0002801464223933183</v>
       </c>
       <c r="T23">
-        <v>0.001594807854597942</v>
+        <v>0.0002801464223933185</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.913074410896471</v>
+        <v>0.1626096666666667</v>
       </c>
       <c r="H24">
-        <v>0.913074410896471</v>
+        <v>0.487829</v>
       </c>
       <c r="I24">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="J24">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N24">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q24">
-        <v>10.05641914717942</v>
+        <v>1.836153557531333</v>
       </c>
       <c r="R24">
-        <v>10.05641914717942</v>
+        <v>16.525382017782</v>
       </c>
       <c r="S24">
-        <v>0.0434007149368552</v>
+        <v>0.00672243895546634</v>
       </c>
       <c r="T24">
-        <v>0.0434007149368552</v>
+        <v>0.00672243895546634</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1626096666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.487829</v>
+      </c>
+      <c r="I25">
+        <v>0.01006183847035486</v>
+      </c>
+      <c r="J25">
+        <v>0.01006183847035486</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.2620826666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.7862480000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="P25">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="Q25">
+        <v>0.04261717506577778</v>
+      </c>
+      <c r="R25">
+        <v>0.383554575592</v>
+      </c>
+      <c r="S25">
+        <v>0.0001560279948586078</v>
+      </c>
+      <c r="T25">
+        <v>0.0001560279948586078</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1146036666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.343811</v>
+      </c>
+      <c r="I26">
+        <v>0.007091359362258442</v>
+      </c>
+      <c r="J26">
+        <v>0.007091359362258443</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.092292333333333</v>
+      </c>
+      <c r="N26">
+        <v>6.276877000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.1237967521619938</v>
+      </c>
+      <c r="P26">
+        <v>0.1237967521619938</v>
+      </c>
+      <c r="Q26">
+        <v>0.2397843731385556</v>
+      </c>
+      <c r="R26">
+        <v>2.158059358247</v>
+      </c>
+      <c r="S26">
+        <v>0.0008778872574611426</v>
+      </c>
+      <c r="T26">
+        <v>0.0008778872574611428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.1146036666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.343811</v>
+      </c>
+      <c r="I27">
+        <v>0.007091359362258442</v>
+      </c>
+      <c r="J27">
+        <v>0.007091359362258443</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.468365333333333</v>
+      </c>
+      <c r="N27">
+        <v>7.405096</v>
+      </c>
+      <c r="O27">
+        <v>0.1460482393151517</v>
+      </c>
+      <c r="P27">
+        <v>0.1460482393151517</v>
+      </c>
+      <c r="Q27">
+        <v>0.2828837178728889</v>
+      </c>
+      <c r="R27">
+        <v>2.545953460856</v>
+      </c>
+      <c r="S27">
+        <v>0.001035680549208863</v>
+      </c>
+      <c r="T27">
+        <v>0.001035680549208863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.1146036666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.343811</v>
+      </c>
+      <c r="I28">
+        <v>0.007091359362258442</v>
+      </c>
+      <c r="J28">
+        <v>0.007091359362258443</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.315935</v>
+      </c>
+      <c r="N28">
+        <v>0.9478049999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.01869324198688273</v>
+      </c>
+      <c r="P28">
+        <v>0.01869324198688273</v>
+      </c>
+      <c r="Q28">
+        <v>0.03620730942833333</v>
+      </c>
+      <c r="R28">
+        <v>0.325865784855</v>
+      </c>
+      <c r="S28">
+        <v>0.0001325604965746434</v>
+      </c>
+      <c r="T28">
+        <v>0.0001325604965746435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.1146036666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.343811</v>
+      </c>
+      <c r="I29">
+        <v>0.007091359362258442</v>
+      </c>
+      <c r="J29">
+        <v>0.007091359362258443</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.4705663333333334</v>
+      </c>
+      <c r="N29">
+        <v>1.411699</v>
+      </c>
+      <c r="O29">
+        <v>0.02784246867197405</v>
+      </c>
+      <c r="P29">
+        <v>0.02784246867197405</v>
+      </c>
+      <c r="Q29">
+        <v>0.05392862720988889</v>
+      </c>
+      <c r="R29">
+        <v>0.485357644889</v>
+      </c>
+      <c r="S29">
+        <v>0.0001974409508853905</v>
+      </c>
+      <c r="T29">
+        <v>0.0001974409508853906</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.1146036666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.343811</v>
+      </c>
+      <c r="I30">
+        <v>0.007091359362258442</v>
+      </c>
+      <c r="J30">
+        <v>0.007091359362258443</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>11.291786</v>
+      </c>
+      <c r="N30">
+        <v>33.875358</v>
+      </c>
+      <c r="O30">
+        <v>0.6681123907199095</v>
+      </c>
+      <c r="P30">
+        <v>0.6681123907199095</v>
+      </c>
+      <c r="Q30">
+        <v>1.294080078815333</v>
+      </c>
+      <c r="R30">
+        <v>11.646720709338</v>
+      </c>
+      <c r="S30">
+        <v>0.004737825056972501</v>
+      </c>
+      <c r="T30">
+        <v>0.004737825056972501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1146036666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.343811</v>
+      </c>
+      <c r="I31">
+        <v>0.007091359362258442</v>
+      </c>
+      <c r="J31">
+        <v>0.007091359362258443</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.2620826666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.7862480000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="P31">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="Q31">
+        <v>0.03003563456977778</v>
+      </c>
+      <c r="R31">
+        <v>0.270320711128</v>
+      </c>
+      <c r="S31">
+        <v>0.0001099650511559026</v>
+      </c>
+      <c r="T31">
+        <v>0.0001099650511559026</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.919493</v>
+      </c>
+      <c r="H32">
+        <v>2.758479</v>
+      </c>
+      <c r="I32">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="J32">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.092292333333333</v>
+      </c>
+      <c r="N32">
+        <v>6.276877000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.1237967521619938</v>
+      </c>
+      <c r="P32">
+        <v>0.1237967521619938</v>
+      </c>
+      <c r="Q32">
+        <v>1.923848154453667</v>
+      </c>
+      <c r="R32">
+        <v>17.314633390083</v>
+      </c>
+      <c r="S32">
+        <v>0.007043502284901168</v>
+      </c>
+      <c r="T32">
+        <v>0.007043502284901169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.919493</v>
+      </c>
+      <c r="H33">
+        <v>2.758479</v>
+      </c>
+      <c r="I33">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="J33">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.468365333333333</v>
+      </c>
+      <c r="N33">
+        <v>7.405096</v>
+      </c>
+      <c r="O33">
+        <v>0.1460482393151517</v>
+      </c>
+      <c r="P33">
+        <v>0.1460482393151517</v>
+      </c>
+      <c r="Q33">
+        <v>2.269644645442667</v>
+      </c>
+      <c r="R33">
+        <v>20.426801808984</v>
+      </c>
+      <c r="S33">
+        <v>0.008309516116997753</v>
+      </c>
+      <c r="T33">
+        <v>0.008309516116997753</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.919493</v>
+      </c>
+      <c r="H34">
+        <v>2.758479</v>
+      </c>
+      <c r="I34">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="J34">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.315935</v>
+      </c>
+      <c r="N34">
+        <v>0.9478049999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.01869324198688273</v>
+      </c>
+      <c r="P34">
+        <v>0.01869324198688273</v>
+      </c>
+      <c r="Q34">
+        <v>0.290500020955</v>
+      </c>
+      <c r="R34">
+        <v>2.614500188595</v>
+      </c>
+      <c r="S34">
+        <v>0.001063564999464025</v>
+      </c>
+      <c r="T34">
+        <v>0.001063564999464025</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.913074410896471</v>
-      </c>
-      <c r="H25">
-        <v>0.913074410896471</v>
-      </c>
-      <c r="I25">
-        <v>0.05804252324677036</v>
-      </c>
-      <c r="J25">
-        <v>0.05804252324677036</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.216988241257446</v>
-      </c>
-      <c r="N25">
-        <v>0.216988241257446</v>
-      </c>
-      <c r="O25">
-        <v>0.01473158937570397</v>
-      </c>
-      <c r="P25">
-        <v>0.01473158937570397</v>
-      </c>
-      <c r="Q25">
-        <v>0.1981264105576038</v>
-      </c>
-      <c r="R25">
-        <v>0.1981264105576038</v>
-      </c>
-      <c r="S25">
-        <v>0.0008550586188011732</v>
-      </c>
-      <c r="T25">
-        <v>0.0008550586188011732</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.919493</v>
+      </c>
+      <c r="H35">
+        <v>2.758479</v>
+      </c>
+      <c r="I35">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="J35">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.4705663333333334</v>
+      </c>
+      <c r="N35">
+        <v>1.411699</v>
+      </c>
+      <c r="O35">
+        <v>0.02784246867197405</v>
+      </c>
+      <c r="P35">
+        <v>0.02784246867197405</v>
+      </c>
+      <c r="Q35">
+        <v>0.4326824495356667</v>
+      </c>
+      <c r="R35">
+        <v>3.894142045821</v>
+      </c>
+      <c r="S35">
+        <v>0.00158411661278255</v>
+      </c>
+      <c r="T35">
+        <v>0.00158411661278255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.919493</v>
+      </c>
+      <c r="H36">
+        <v>2.758479</v>
+      </c>
+      <c r="I36">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="J36">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>11.291786</v>
+      </c>
+      <c r="N36">
+        <v>33.875358</v>
+      </c>
+      <c r="O36">
+        <v>0.6681123907199095</v>
+      </c>
+      <c r="P36">
+        <v>0.6681123907199095</v>
+      </c>
+      <c r="Q36">
+        <v>10.382718184498</v>
+      </c>
+      <c r="R36">
+        <v>93.44446366048199</v>
+      </c>
+      <c r="S36">
+        <v>0.03801271898028988</v>
+      </c>
+      <c r="T36">
+        <v>0.03801271898028988</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.919493</v>
+      </c>
+      <c r="H37">
+        <v>2.758479</v>
+      </c>
+      <c r="I37">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="J37">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.2620826666666667</v>
+      </c>
+      <c r="N37">
+        <v>0.7862480000000001</v>
+      </c>
+      <c r="O37">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="P37">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="Q37">
+        <v>0.2409831774213333</v>
+      </c>
+      <c r="R37">
+        <v>2.168848596792</v>
+      </c>
+      <c r="S37">
+        <v>0.0008822762632594161</v>
+      </c>
+      <c r="T37">
+        <v>0.0008822762632594161</v>
       </c>
     </row>
   </sheetData>
